--- a/trunk/bp/SF_BP_Síťové zprávy.xlsx
+++ b/trunk/bp/SF_BP_Síťové zprávy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="164">
   <si>
     <t>název pole</t>
   </si>
@@ -69,9 +69,6 @@
     <t>&lt;0x0, 0x1869F&gt;</t>
   </si>
   <si>
-    <t>Číslo IMEI</t>
-  </si>
-  <si>
     <t>15x&lt;"0", "9"&gt;</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>0xB</t>
   </si>
   <si>
-    <t>0xC</t>
-  </si>
-  <si>
     <t>Odhlášení mobilního klienta od serveru</t>
   </si>
   <si>
@@ -480,12 +474,6 @@
     <t>Konečný čas, do kdy může vozidlo v oblasti parkovat. Čas je vyjádřen v UTC.</t>
   </si>
   <si>
-    <t>Zpráva o ukončení spojení</t>
-  </si>
-  <si>
-    <t>Zpráva je posílána ze serveru, když server ukončuje spojení z vlastní strany při přihlašování.</t>
-  </si>
-  <si>
     <t>Číslo IMEI mobilního zařízení, ze kterého probíhá přihlašování. Patnáctimístné desítkové číslo uložené jako string a převedené na pole bytů. Pokud je hodnota pole "Důvod identifikace" nastavena na hodnotu 0x1, toto pole se ignoruje.</t>
   </si>
   <si>
@@ -501,15 +489,6 @@
     <t>Stav parkování vybraného vozidla. 0x0 - parkování je povoleno, 0x1 - parkování není povoleno, 0x2 - stav parkování se nepodařilo určit.</t>
   </si>
   <si>
-    <t>Stavové pole určující důvod ověření identity. 0x0 - přihlášení do systému, 0x1 - ověření totožnosti policisty (vyžaduje již přihlášeného PC klienta).</t>
-  </si>
-  <si>
-    <t>10 B</t>
-  </si>
-  <si>
-    <t>TODO?</t>
-  </si>
-  <si>
     <t>[0x0 | 0x1 | 0x2 | 0x4 | 0x8 | 0x10 | 0x20 | 0x40]</t>
   </si>
   <si>
@@ -517,6 +496,18 @@
   </si>
   <si>
     <t>Stav, jak dopadl požadavek na změnu PIN. 0x0 - změna proběhla v pořádku, 0x1 - chybné služební číslo nebo PIN, 0x2 - neznámá chyba, PIN nelze změnit.</t>
+  </si>
+  <si>
+    <t>Délka pole s geo daty</t>
+  </si>
+  <si>
+    <t>Délka pole bytů serializovaného seznamu souřadnic.</t>
+  </si>
+  <si>
+    <t>Serializovaného seznamu souřadnic.</t>
+  </si>
+  <si>
+    <t>Seznam souřadnic</t>
   </si>
 </sst>
 </file>
@@ -697,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,9 +775,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1143,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G102"/>
+  <dimension ref="A3:G94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,23 +1151,23 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
+      <c r="B3" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="B4" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
@@ -1202,14 +1190,14 @@
       <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>42</v>
+      <c r="C6" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>15</v>
@@ -1219,30 +1207,30 @@
       <c r="A7" s="20">
         <v>1</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="44" t="s">
+      <c r="B7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>4</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="45" t="s">
+      <c r="C8" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="23" t="s">
@@ -1253,13 +1241,13 @@
       <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="25" t="s">
@@ -1270,17 +1258,17 @@
       <c r="A10" s="24">
         <v>15</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45">
+        <v>10</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>34</v>
+      <c r="D10" s="45" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
@@ -1298,23 +1286,23 @@
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
+      <c r="B14" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="B15" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -1337,14 +1325,14 @@
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>42</v>
+      <c r="C17" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>15</v>
@@ -1355,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1372,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
@@ -1382,23 +1370,23 @@
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
+      <c r="B22" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="B23" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
@@ -1421,14 +1409,14 @@
       <c r="A25" s="4">
         <v>1</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>42</v>
+      <c r="C25" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="E25" s="37" t="s">
         <v>15</v>
@@ -1439,16 +1427,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1456,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="30"/>
@@ -1466,23 +1454,23 @@
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
+      <c r="B30" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
+      <c r="B31" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
@@ -1505,14 +1493,14 @@
       <c r="A33" s="4">
         <v>1</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>42</v>
+      <c r="C33" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>15</v>
@@ -1522,17 +1510,17 @@
       <c r="A34" s="10">
         <v>4</v>
       </c>
-      <c r="B34" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="47" t="s">
+      <c r="B34" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="C34" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1540,33 +1528,33 @@
         <v>4</v>
       </c>
       <c r="B35" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="38" t="s">
         <v>30</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1574,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="30"/>
@@ -1584,23 +1572,23 @@
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
+      <c r="B40" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
+      <c r="B41" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
@@ -1623,14 +1611,14 @@
       <c r="A43" s="4">
         <v>1</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>42</v>
+      <c r="C43" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>15</v>
@@ -1641,33 +1629,33 @@
         <v>4</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>39</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1675,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="30"/>
@@ -1685,23 +1673,23 @@
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
+      <c r="B49" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
+      <c r="B50" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
@@ -1724,14 +1712,14 @@
       <c r="A52" s="4">
         <v>1</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>42</v>
+      <c r="C52" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>15</v>
@@ -1742,16 +1730,16 @@
         <v>1</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1759,33 +1747,33 @@
         <v>4</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>39</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1793,7 +1781,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C56" s="29"/>
       <c r="D56" s="30"/>
@@ -1803,23 +1791,23 @@
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
+      <c r="B59" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
+      <c r="B60" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
@@ -1842,14 +1830,14 @@
       <c r="A62" s="4">
         <v>1</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>42</v>
+      <c r="C62" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>15</v>
@@ -1860,33 +1848,33 @@
         <v>4</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B64" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1894,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="30"/>
@@ -1904,24 +1892,24 @@
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
+      <c r="B68" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
-      <c r="G69" s="55"/>
+      <c r="B69" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="G69" s="54"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
@@ -1939,79 +1927,79 @@
       <c r="E70" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="53"/>
-      <c r="G70" s="55"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="54"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>1</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" s="41" t="s">
-        <v>42</v>
+      <c r="C71" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="55"/>
+      <c r="G71" s="54"/>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>1</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D72" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G72" s="55"/>
+        <v>156</v>
+      </c>
+      <c r="G72" s="54"/>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>8</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E73" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="F73" s="54"/>
-      <c r="G73" s="55"/>
+      <c r="D73" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" s="53"/>
+      <c r="G73" s="54"/>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>8</v>
       </c>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" s="47" t="s">
-        <v>153</v>
+      <c r="E74" s="46" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2019,33 +2007,33 @@
         <v>4</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2053,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="30"/>
@@ -2063,23 +2051,23 @@
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
+      <c r="B80" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="57"/>
+      <c r="B81" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
@@ -2097,46 +2085,66 @@
       <c r="E82" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>1</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="41" t="s">
-        <v>42</v>
+      <c r="C83" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D83" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="9"/>
+      <c r="A84" s="8">
+        <v>4</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10"/>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="12"/>
+      <c r="A85" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="16"/>
+      <c r="B86" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="C86" s="29"/>
       <c r="D86" s="30"/>
       <c r="E86" s="31"/>
@@ -2145,23 +2153,23 @@
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
+      <c r="B89" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="59"/>
+      <c r="B90" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="58"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
@@ -2184,14 +2192,14 @@
       <c r="A92" s="4">
         <v>1</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D92" s="41" t="s">
-        <v>42</v>
+      <c r="C92" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>15</v>
@@ -2202,16 +2210,16 @@
         <v>1</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D93" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2219,100 +2227,14 @@
         <v>5</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C94" s="32"/>
       <c r="D94" s="33"/>
       <c r="E94" s="34"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="C97" s="58"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="59"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <v>1</v>
-      </c>
-      <c r="B100" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D100" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="8">
-        <v>1</v>
-      </c>
-      <c r="B101" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C101" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="34"/>
-    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
+  <mergeCells count="20">
     <mergeCell ref="B89:E89"/>
     <mergeCell ref="B90:E90"/>
     <mergeCell ref="B40:E40"/>
@@ -2341,10 +2263,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F81"/>
+  <dimension ref="A3:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:E76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2356,29 +2278,29 @@
     <col min="6" max="6" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
@@ -2395,175 +2317,166 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>42</v>
+      <c r="C6" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>1</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>4</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+        <v>12</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
-        <v>4</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="E8" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B9" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B11" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="B12" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="57" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>4</v>
-      </c>
-      <c r="B16" s="42" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
+      <c r="A20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B20" s="56" t="s">
         <v>86</v>
@@ -2572,740 +2485,729 @@
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="57" t="s">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>1</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="58" t="s">
         <v>88</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>1</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>89</v>
       </c>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
       <c r="E28" s="58"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="13" t="s">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>1</v>
-      </c>
-      <c r="B31" s="41" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="C30" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>1</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="38" t="s">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>1</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>3</v>
+      <c r="A36" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B36" s="58" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C36" s="58"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="13" t="s">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="48">
+        <v>1</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="49">
-        <v>1</v>
+      <c r="A39" s="51">
+        <v>4</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="52">
-        <v>4</v>
-      </c>
-      <c r="B40" s="42" t="s">
+      <c r="A40" s="51">
+        <v>1</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>2</v>
+      </c>
+      <c r="B41" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="42" t="s">
+      <c r="C41" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="52">
-        <v>1</v>
-      </c>
-      <c r="B41" s="42" t="s">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="42" t="s">
+      <c r="C42" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="46" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
-        <v>2</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="23" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="47" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="57" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>3</v>
+      <c r="A47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C47" s="58"/>
       <c r="D47" s="58"/>
       <c r="E47" s="58"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="13" t="s">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E48" s="14" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="48">
+        <v>1</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="49">
-        <v>1</v>
+      <c r="A50" s="51">
+        <v>4</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="52">
-        <v>4</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="49">
+        <v>1</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="50">
-        <v>1</v>
+      <c r="A52" s="49">
+        <v>4</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C52" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="50">
-        <v>4</v>
-      </c>
-      <c r="B53" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="47" t="s">
+      <c r="D53" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="34"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>3</v>
+      <c r="A58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C58" s="58"/>
       <c r="D58" s="58"/>
       <c r="E58" s="58"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="13" t="s">
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D59" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E59" s="14" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="48">
+        <v>1</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="49">
-        <v>1</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="41" t="s">
+      <c r="A61" s="22">
+        <v>4</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
+      <c r="D61" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="24">
         <v>4</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D62" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24">
-        <v>4</v>
-      </c>
-      <c r="B63" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="16" t="s">
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="34"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="34"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>3</v>
+      <c r="A67" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B67" s="58" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C67" s="58"/>
       <c r="D67" s="58"/>
       <c r="E67" s="58"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="59" t="s">
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="48">
+        <v>1</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="49">
         <v>1</v>
       </c>
-      <c r="B70" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="50">
-        <v>1</v>
-      </c>
-      <c r="B71" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="51">
-        <v>4</v>
-      </c>
-      <c r="B72" s="46" t="s">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="34"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="34"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>3</v>
+      <c r="A76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B76" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="58"/>
       <c r="D76" s="58"/>
       <c r="E76" s="58"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="13" t="s">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D77" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E77" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F78" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="49">
-        <v>1</v>
-      </c>
-      <c r="B79" s="41" t="s">
+      <c r="F77" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="48">
+        <v>1</v>
+      </c>
+      <c r="B78" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E79" s="41" t="s">
+      <c r="C78" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8">
-        <v>1</v>
-      </c>
-      <c r="B80" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="38" t="s">
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>1</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
+      <c r="E79" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="34"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B46:E46"/>
     <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B75:E75"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B66:E66"/>
     <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3332,19 +3234,19 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -3364,35 +3266,35 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
-        <v>1</v>
-      </c>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="48">
+        <v>1</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="41" t="s">
+      <c r="C5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
